--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466066.3834296475</v>
+        <v>526901.8583413477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554242</v>
+        <v>337002.2430554235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10947499.68099521</v>
       </c>
     </row>
     <row r="9">
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>87.38033727746351</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.694307190369</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>96.52468151912586</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>39.96813536721593</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.96510530585736</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>14.59689039088873</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>94.63926978364064</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>11.97262119319231</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>333.3577157943988</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553082</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>94.63926978364063</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.1608002224379</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.731776059013</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>46.53270054897215</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>94.63926978364064</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2137,19 +2137,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>116.788412387557</v>
       </c>
       <c r="W20" t="n">
-        <v>115.4115848270737</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>81.1220065286376</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>263.2722027231274</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>12.38523429436935</v>
       </c>
       <c r="Y26" t="n">
-        <v>183.6237899101556</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>86.88462298447462</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>119.2410705328512</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2851,13 +2851,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>47.40419526769212</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>67.00913094683261</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>84.84244993117485</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>163.3108609474081</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>155.9252426973317</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>136.1286387281322</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.1478855987998</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.692328216544</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>276.298310651475</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.05884990877803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>129.0326605836836</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>141.3279142046489</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14.44433456003312</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.7806877295493</v>
+        <v>67.41850321461121</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>184.2877181987815</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>83.52967048761326</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>142.567753130208</v>
       </c>
       <c r="E43" t="n">
-        <v>142.6307342906313</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.04673128670552</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>52.76623367726329</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="E46" t="n">
-        <v>84.84244993117485</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4357,19 +4357,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
         <v>19.28114311021272</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>108.2982427099313</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4515,22 +4515,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>726.1056462496665</v>
+        <v>762.3457341062231</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>762.3457341062231</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>762.3457341062231</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>762.3457341062231</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>554.4942339006902</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="7">
@@ -4746,13 +4746,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.0940480307835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>358.0940480307835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>358.0940480307835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>358.0940480307835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6452713866835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.0940480307835</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4910,19 +4910,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
         <v>19.28114311021272</v>
@@ -4992,13 +4992,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>471.9067899221776</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C11" t="n">
         <v>471.9067899221776</v>
@@ -5032,61 +5032,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982766</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y11" t="n">
-        <v>858.5066299862995</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064346</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064346</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610025</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610025</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240419</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.346402544968</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C14" t="n">
-        <v>2033.346402544968</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1675.080703938217</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1289.292451339973</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5293,37 +5293,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520779</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.485734520779</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X14" t="n">
-        <v>2423.485734520779</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.346402544968</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170839</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359569</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036447</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5445,7 +5445,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
         <v>529.6040388502502</v>
@@ -5454,34 +5454,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036447</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036447</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
         <v>882.8926947117852</v>
@@ -5506,22 +5506,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5530,13 +5530,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.723949158871</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.6610618153</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.892406545186</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X17" t="n">
-        <v>1485.892406545186</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y17" t="n">
-        <v>1095.753074569374</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5591,46 +5591,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.5382038240419</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C19" t="n">
-        <v>149.5382038240419</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>149.5382038240419</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5382038240419</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240419</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240419</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240419</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>840.8693068625894</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C20" t="n">
-        <v>471.9067899221776</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D20" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5770,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.512263598976</v>
+        <v>2129.340153514184</v>
       </c>
       <c r="W20" t="n">
-        <v>1600.934905187791</v>
+        <v>2129.340153514184</v>
       </c>
       <c r="X20" t="n">
-        <v>1227.469146926711</v>
+        <v>2129.340153514184</v>
       </c>
       <c r="Y20" t="n">
-        <v>1227.469146926711</v>
+        <v>1739.200821538372</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5852,22 +5852,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1241.158393318536</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1893.689751284806</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1627.758233382657</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y23" t="n">
-        <v>1627.758233382657</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1905.140074719376</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C26" t="n">
-        <v>1536.177557778964</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.911859172214</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
         <v>381.1377017843616</v>
@@ -6226,7 +6226,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W26" t="n">
-        <v>2090.6186503862</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X26" t="n">
-        <v>2090.6186503862</v>
+        <v>1901.93082502929</v>
       </c>
       <c r="Y26" t="n">
-        <v>1905.140074719376</v>
+        <v>1511.791493053478</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6308,13 +6308,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6329,19 +6329,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>350.9495687306105</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C28" t="n">
-        <v>350.9495687306105</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D28" t="n">
-        <v>200.8329293182748</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>350.9495687306105</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>350.9495687306105</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>350.9495687306105</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1261.831893336434</v>
+        <v>1288.509552617345</v>
       </c>
       <c r="C29" t="n">
-        <v>892.8693763960225</v>
+        <v>919.5470356769335</v>
       </c>
       <c r="D29" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E29" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.831893336434</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.831893336434</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.5651556036578</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6289726757509</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>121.6289726757509</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>121.6289726757509</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>121.6289726757509</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T31" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U31" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V31" t="n">
-        <v>579.9823256406185</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W31" t="n">
-        <v>290.5651556036578</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X31" t="n">
-        <v>290.5651556036578</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y31" t="n">
-        <v>290.5651556036578</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1406.118858921978</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C32" t="n">
-        <v>1406.118858921978</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D32" t="n">
-        <v>1047.853160315228</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
@@ -6721,7 +6721,7 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2169.72394915887</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W32" t="n">
-        <v>2169.72394915887</v>
+        <v>1899.795483694417</v>
       </c>
       <c r="X32" t="n">
-        <v>1796.25819089779</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="Y32" t="n">
-        <v>1406.118858921978</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9088977430002</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C34" t="n">
-        <v>351.9727148150933</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.9088977430002</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>554.3221432721089</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C35" t="n">
-        <v>554.3221432721089</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>196.0564446653584</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.527073573122</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>1331.061315312042</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y35" t="n">
-        <v>940.9219833362306</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7019,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.7118141694738</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C37" t="n">
-        <v>269.7756312415669</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D37" t="n">
-        <v>119.6589918292312</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2790026119641</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2790026119641</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694738</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694738</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694738</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1309.714918859356</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C38" t="n">
-        <v>940.7524019189439</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D38" t="n">
-        <v>582.4867033121934</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="E38" t="n">
-        <v>196.6984507139492</v>
+        <v>68.53321874969083</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>68.53321874969083</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y38" t="n">
-        <v>1309.714918859356</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7265,31 +7265,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.6879402326646</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C40" t="n">
-        <v>156.7517573047577</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629043</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253592</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7411,10 +7411,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224076</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2279.793703561087</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U41" t="n">
-        <v>2279.793703561087</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V41" t="n">
-        <v>2279.793703561087</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W41" t="n">
-        <v>1927.025048290973</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X41" t="n">
-        <v>1553.559290029893</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9043780966903</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9043780966903</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1294.457619255165</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>936.1919206484147</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>936.1919206484147</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>525.2060158588072</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>107.242207756994</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7687,13 +7687,13 @@
         <v>2423.485734520778</v>
       </c>
       <c r="W44" t="n">
-        <v>2070.717079250664</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.251320989584</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y44" t="n">
-        <v>1307.111989013772</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424003</v>
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C46" t="n">
-        <v>286.5323736931989</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D46" t="n">
-        <v>286.5323736931989</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22597,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,10 +22631,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>70.26474317793743</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>36.26901108812098</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0.4704215044525881</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22986,16 +22986,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>320.892250521429</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23077,10 +23077,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>325.3047564037916</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.2728333501962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>237.5407529329393</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>131.0703856053965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>353.3002705778152</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>73.51832994731262</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
@@ -23709,16 +23709,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>19.54885516659928</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172.0020656044676</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.7082681684408</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>50.7817782392906</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>210.9638460825779</v>
       </c>
       <c r="W20" t="n">
-        <v>233.8293838903394</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3958356744437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>217.3206500666357</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>300.8083635436242</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>106.4588979553416</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>357.3458663840997</v>
       </c>
       <c r="Y26" t="n">
-        <v>202.614148745898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>99.05652735499199</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>199.3972512575031</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>235.4419710878318</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3269054107769</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100.3006713122183</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>167.2951933926531</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>218.6195091248536</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>193.3157260200813</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10.30532391843701</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.43676775329496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.2380418557178</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,10 +25171,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>93.43279002699404</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>81.37511273779114</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>38.27714167536729</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>265.5481315370625</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>399.3398354607619</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>46.83478528866308</v>
+        <v>81.19696980360115</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>32.16060215887632</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>286.2014301908558</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>6.047719888004394</v>
       </c>
       <c r="E43" t="n">
-        <v>3.803228355937875</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>344.6871103767751</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>271.1565390870938</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,28 +26025,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="E46" t="n">
-        <v>61.59151271539432</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482104.1301211513</v>
+        <v>482104.1301211515</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482104.1301211515</v>
+        <v>482104.1301211513</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26331,7 +26331,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126062</v>
@@ -26340,16 +26340,16 @@
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126063</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429963</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,13 +26444,13 @@
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26499,7 +26499,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41990.01967454163</v>
+        <v>-30993.81011650525</v>
       </c>
       <c r="C6" t="n">
-        <v>38779.41185700607</v>
+        <v>49775.62141504249</v>
       </c>
       <c r="D6" t="n">
-        <v>38779.4118570061</v>
+        <v>49775.62141504249</v>
       </c>
       <c r="E6" t="n">
-        <v>-292768.7244798855</v>
+        <v>-287307.1521086481</v>
       </c>
       <c r="F6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="G6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="H6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="I6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.021934348</v>
       </c>
       <c r="J6" t="n">
-        <v>77017.50696400442</v>
+        <v>82479.07933524161</v>
       </c>
       <c r="K6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="L6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="M6" t="n">
-        <v>32104.08888905253</v>
+        <v>37565.66126028974</v>
       </c>
       <c r="N6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343481</v>
       </c>
       <c r="O6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="P6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32004,34 +32004,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
@@ -32110,7 +32110,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338903</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
